--- a/IMS/SaleOrderFormat/SalesOrder.xlsx
+++ b/IMS/SaleOrderFormat/SalesOrder.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>ITEM DESCRIPTION</t>
   </si>
@@ -287,20 +287,26 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Sales Order No : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sales Order Date : </t>
-  </si>
-  <si>
     <t xml:space="preserve">Bill To : </t>
+  </si>
+  <si>
+    <t>Date Account:</t>
+  </si>
+  <si>
+    <t>Sales Rep. :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inv No : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inv Date : </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -659,7 +665,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -668,7 +674,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -740,6 +745,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -803,6 +809,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1043,7 +1055,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1075,10 +1087,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1110,7 +1121,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1286,18 +1296,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="CF24" sqref="CF24"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="43.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="29" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" customWidth="1"/>
     <col min="6" max="6" width="11.140625" customWidth="1"/>
@@ -1305,7 +1315,7 @@
     <col min="8" max="8" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:9" ht="4.5" customHeight="1">
       <c r="A1" s="46" t="s">
         <v>31</v>
       </c>
@@ -1313,9 +1323,9 @@
       <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="8"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1">
       <c r="A2" s="47"/>
       <c r="B2" s="47"/>
       <c r="E2" s="1"/>
@@ -1325,7 +1335,7 @@
       <c r="G2" s="44"/>
       <c r="H2" s="44"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1">
       <c r="A3" s="47"/>
       <c r="B3" s="47"/>
       <c r="E3" s="1"/>
@@ -1333,7 +1343,7 @@
       <c r="G3" s="44"/>
       <c r="H3" s="44"/>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1">
       <c r="A4" s="47"/>
       <c r="B4" s="47"/>
       <c r="E4" s="1"/>
@@ -1341,7 +1351,7 @@
       <c r="G4" s="44"/>
       <c r="H4" s="44"/>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1">
       <c r="A5" s="47"/>
       <c r="B5" s="47"/>
       <c r="E5" s="1"/>
@@ -1351,7 +1361,7 @@
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1">
       <c r="A6" s="47"/>
       <c r="B6" s="47"/>
       <c r="E6" s="1"/>
@@ -1359,109 +1369,118 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:9" ht="15" customHeight="1">
+      <c r="A7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="5"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6" t="s">
+      <c r="G7" s="4"/>
+      <c r="H7" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:9">
+      <c r="A8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="5"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:9">
+      <c r="A9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="5"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:9">
+      <c r="A10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B10" s="5"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:9">
+      <c r="A11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="5"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:9" ht="15" customHeight="1">
+      <c r="A12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="H12" s="7" t="s">
+      <c r="B12" s="5"/>
+      <c r="H12" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:9" ht="15" customHeight="1">
+      <c r="A13" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="H13" s="7" t="s">
+      <c r="B13" s="5"/>
+      <c r="H13" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41" t="s">
-        <v>38</v>
+    <row r="14" spans="1:9" ht="5.25" customHeight="1" thickBot="1">
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" ht="24.95" customHeight="1" thickBot="1">
+      <c r="A15" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40" t="s">
+        <v>41</v>
       </c>
       <c r="E15" s="61"/>
       <c r="F15" s="62"/>
       <c r="G15" s="62"/>
       <c r="H15" s="63"/>
     </row>
-    <row r="16" spans="1:8" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="25.5" customHeight="1" thickBot="1">
+      <c r="A16" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="39"/>
+      <c r="D16" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="41"/>
+    </row>
+    <row r="17" spans="1:11" ht="24.95" customHeight="1">
       <c r="A17" s="52" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B17" s="53"/>
       <c r="C17" s="53"/>
@@ -1471,7 +1490,7 @@
       <c r="G17" s="53"/>
       <c r="H17" s="54"/>
     </row>
-    <row r="18" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="24.95" customHeight="1">
       <c r="A18" s="55"/>
       <c r="B18" s="56"/>
       <c r="C18" s="56"/>
@@ -1481,7 +1500,7 @@
       <c r="G18" s="56"/>
       <c r="H18" s="57"/>
     </row>
-    <row r="19" spans="1:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="24.95" customHeight="1" thickBot="1">
       <c r="A19" s="58"/>
       <c r="B19" s="59"/>
       <c r="C19" s="59"/>
@@ -1491,316 +1510,316 @@
       <c r="G19" s="59"/>
       <c r="H19" s="60"/>
     </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:11" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+    <row r="20" spans="1:11" ht="15" customHeight="1" thickBot="1">
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:11" s="3" customFormat="1" ht="31.5">
+      <c r="A21" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H21" s="12" t="s">
+      <c r="H21" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="32"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="13"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="13"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="13"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="13"/>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="13"/>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="13"/>
-    </row>
-    <row r="28" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="13"/>
-      <c r="K28" s="38"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="13"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="13"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="13"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="13"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="13"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="13"/>
-    </row>
-    <row r="35" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="13"/>
-    </row>
-    <row r="36" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="13"/>
-    </row>
-    <row r="37" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="13"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="13"/>
-    </row>
-    <row r="39" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="13"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="13"/>
-    </row>
-    <row r="41" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="13"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="13"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="13"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="13"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="16"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="13"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="16"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="13"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="16"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="13"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="16"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="13"/>
-    </row>
-    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="17"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="14"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="31"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="12"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="12"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="12"/>
+    </row>
+    <row r="28" spans="1:11" ht="18.75" thickBot="1">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="12"/>
+      <c r="K28" s="37"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="12"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="12"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="12"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="12"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="12"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="12"/>
+    </row>
+    <row r="35" spans="1:8" s="28" customFormat="1">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="12"/>
+    </row>
+    <row r="36" spans="1:8" s="28" customFormat="1">
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="12"/>
+    </row>
+    <row r="37" spans="1:8" s="28" customFormat="1">
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="12"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="12"/>
+    </row>
+    <row r="39" spans="1:8" s="28" customFormat="1">
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="12"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="12"/>
+    </row>
+    <row r="41" spans="1:8" s="28" customFormat="1">
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="12"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="12"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="12"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="15"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="12"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="12"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="12"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="12"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="12"/>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="13"/>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="50" t="s">
         <v>17</v>
       </c>
@@ -1815,7 +1834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="15.75" thickBot="1">
       <c r="A51" s="51"/>
       <c r="B51" s="51"/>
       <c r="C51" s="51"/>
@@ -1825,67 +1844,67 @@
       <c r="G51" s="51"/>
       <c r="H51" s="49"/>
     </row>
-    <row r="52" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A52" s="19" t="s">
+    <row r="52" spans="1:8" ht="18.75">
+      <c r="A52" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="27" t="s">
+      <c r="B52" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C52" s="34"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="22"/>
-    </row>
-    <row r="53" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A53" s="23" t="s">
+      <c r="C52" s="33"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="21"/>
+    </row>
+    <row r="53" spans="1:8" ht="18.75">
+      <c r="A53" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="28" t="s">
+      <c r="B53" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C53" s="35"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="24"/>
-    </row>
-    <row r="54" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A54" s="23" t="s">
+      <c r="C53" s="34"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="23"/>
+    </row>
+    <row r="54" spans="1:8" ht="18.75">
+      <c r="A54" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="28" t="s">
+      <c r="B54" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C54" s="35"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="24"/>
-    </row>
-    <row r="55" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A55" s="23" t="s">
+      <c r="C54" s="34"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="23"/>
+    </row>
+    <row r="55" spans="1:8" ht="18.75">
+      <c r="A55" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="28" t="s">
+      <c r="B55" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C55" s="35"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="24"/>
-    </row>
-    <row r="56" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="25"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="26"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="23"/>
+    </row>
+    <row r="56" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A56" s="24"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="25"/>
       <c r="E56" s="42" t="s">
         <v>16</v>
       </c>
@@ -1893,14 +1912,14 @@
       <c r="G56" s="42"/>
       <c r="H56" s="43"/>
     </row>
-    <row r="58" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="29" t="s">
+    <row r="58" spans="1:8" ht="26.25" customHeight="1">
+      <c r="A58" s="28" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:8" ht="23.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="E56:H56"/>
     <mergeCell ref="F2:H4"/>
     <mergeCell ref="F5:H6"/>
@@ -1909,6 +1928,7 @@
     <mergeCell ref="A50:G51"/>
     <mergeCell ref="A17:H19"/>
     <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.5" bottom="0.25" header="0.05" footer="0"/>
   <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId1"/>
